--- a/data/georgia_census/samegrelo/xobi/population_total.xlsx
+++ b/data/georgia_census/samegrelo/xobi/population_total.xlsx
@@ -1929,13 +1929,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54EB8B71-0002-4069-A5E3-7F4704EB892A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E98D6E3-A214-48D5-A8C3-1DE7430787EA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{159EEA19-7A93-49FD-8D60-3C07DEE2BD30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55251D1-3217-4C19-85C0-8D9015F9C364}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD1BEDBB-0821-4545-95D8-7220B05FE380}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A620451F-F7FD-49A8-8ED3-07338AC5CC37}"/>
 </file>